--- a/ERP/Propuesta/UC/Avance.xlsx
+++ b/ERP/Propuesta/UC/Avance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>Compras</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Planeación de cambios de precio</t>
   </si>
   <si>
-    <t xml:space="preserve"> Modificar transacciones</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Cambio contraseña</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>Nota de credito cuenta por cobrar</t>
+  </si>
+  <si>
+    <t>Modificar transacciones</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="B1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -620,13 +620,13 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -642,11 +642,11 @@
       </c>
       <c r="F3" s="7">
         <f>COUNTIF(C1:C58,C3)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G3" s="7">
         <f>E3-F3</f>
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -661,11 +661,11 @@
       </c>
       <c r="F4" s="8">
         <f>F3/E3</f>
-        <v>0.44897959183673469</v>
+        <v>0.55102040816326525</v>
       </c>
       <c r="G4" s="8">
         <f>E4-F4</f>
-        <v>0.55102040816326525</v>
+        <v>0.44897959183673475</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -691,6 +691,17 @@
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="E7" s="2">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <f>F3+E7</f>
+        <v>38</v>
+      </c>
+      <c r="G7" s="2">
+        <f>E3-F7</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B8" s="9" t="s">
@@ -699,6 +710,14 @@
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="F8" s="2">
+        <f>F7/E3*100</f>
+        <v>77.551020408163268</v>
+      </c>
+      <c r="G8" s="2">
+        <f>100-F8</f>
+        <v>22.448979591836732</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B9" s="9" t="s">
@@ -830,7 +849,7 @@
     </row>
     <row r="27" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B27" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>19</v>
@@ -876,7 +895,9 @@
       <c r="B33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B34" s="9" t="s">
@@ -904,13 +925,17 @@
       <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B39" s="9" t="s">
@@ -940,13 +965,17 @@
       <c r="B43" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="44" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B44" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="45" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B45" s="9" t="s">
@@ -1028,7 +1057,7 @@
     </row>
     <row r="58" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B58" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="7"/>
     </row>

--- a/ERP/Propuesta/UC/Avance.xlsx
+++ b/ERP/Propuesta/UC/Avance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>Compras</t>
   </si>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -642,11 +642,11 @@
       </c>
       <c r="F3" s="7">
         <f>COUNTIF(C1:C58,C3)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="7">
         <f>E3-F3</f>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -661,11 +661,11 @@
       </c>
       <c r="F4" s="8">
         <f>F3/E3</f>
-        <v>0.55102040816326525</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G4" s="8">
         <f>E4-F4</f>
-        <v>0.44897959183673475</v>
+        <v>0.4285714285714286</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -696,11 +696,11 @@
       </c>
       <c r="F7" s="2">
         <f>F3+E7</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2">
         <f>E3-F7</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -712,11 +712,11 @@
       </c>
       <c r="F8" s="2">
         <f>F7/E3*100</f>
-        <v>77.551020408163268</v>
+        <v>79.591836734693871</v>
       </c>
       <c r="G8" s="2">
         <f>100-F8</f>
-        <v>22.448979591836732</v>
+        <v>20.408163265306129</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -981,7 +981,9 @@
       <c r="B45" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="46" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B46" s="9" t="s">

--- a/ERP/Propuesta/UC/Avance.xlsx
+++ b/ERP/Propuesta/UC/Avance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>Compras</t>
   </si>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -642,11 +642,11 @@
       </c>
       <c r="F3" s="7">
         <f>COUNTIF(C1:C58,C3)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G3" s="7">
         <f>E3-F3</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -661,11 +661,11 @@
       </c>
       <c r="F4" s="8">
         <f>F3/E3</f>
-        <v>0.5714285714285714</v>
+        <v>0.65306122448979587</v>
       </c>
       <c r="G4" s="8">
         <f>E4-F4</f>
-        <v>0.4285714285714286</v>
+        <v>0.34693877551020413</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -696,11 +696,11 @@
       </c>
       <c r="F7" s="2">
         <f>F3+E7</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2">
         <f>E3-F7</f>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -712,11 +712,11 @@
       </c>
       <c r="F8" s="2">
         <f>F7/E3*100</f>
-        <v>79.591836734693871</v>
+        <v>87.755102040816325</v>
       </c>
       <c r="G8" s="2">
         <f>100-F8</f>
-        <v>20.408163265306129</v>
+        <v>12.244897959183675</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -941,13 +941,17 @@
       <c r="B39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="40" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B40" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="41" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B41" s="9" t="s">
@@ -989,13 +993,17 @@
       <c r="B46" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="47" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="48" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
       <c r="B48" s="10" t="s">

--- a/ERP/Propuesta/UC/Avance.xlsx
+++ b/ERP/Propuesta/UC/Avance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>Compras</t>
   </si>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -642,11 +642,11 @@
       </c>
       <c r="F3" s="7">
         <f>COUNTIF(C1:C58,C3)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" s="7">
         <f>E3-F3</f>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -661,11 +661,11 @@
       </c>
       <c r="F4" s="8">
         <f>F3/E3</f>
-        <v>0.65306122448979587</v>
+        <v>0.69387755102040816</v>
       </c>
       <c r="G4" s="8">
         <f>E4-F4</f>
-        <v>0.34693877551020413</v>
+        <v>0.30612244897959184</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -696,11 +696,11 @@
       </c>
       <c r="F7" s="2">
         <f>F3+E7</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2">
         <f>E3-F7</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -712,11 +712,11 @@
       </c>
       <c r="F8" s="2">
         <f>F7/E3*100</f>
-        <v>87.755102040816325</v>
+        <v>91.83673469387756</v>
       </c>
       <c r="G8" s="2">
         <f>100-F8</f>
-        <v>12.244897959183675</v>
+        <v>8.1632653061224403</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -957,7 +957,9 @@
       <c r="B41" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="42" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
       <c r="B42" s="10" t="s">
@@ -1069,7 +1071,9 @@
       <c r="B58" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="7"/>
+      <c r="C58" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="1"/>

--- a/ERP/Propuesta/UC/Avance.xlsx
+++ b/ERP/Propuesta/UC/Avance.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="B1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -691,17 +691,6 @@
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2">
-        <f>F3+E7</f>
-        <v>45</v>
-      </c>
-      <c r="G7" s="2">
-        <f>E3-F7</f>
-        <v>4</v>
-      </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B8" s="9" t="s">
@@ -709,14 +698,6 @@
       </c>
       <c r="C8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F8" s="2">
-        <f>F7/E3*100</f>
-        <v>91.83673469387756</v>
-      </c>
-      <c r="G8" s="2">
-        <f>100-F8</f>
-        <v>8.1632653061224403</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" thickBot="1">

--- a/ERP/Propuesta/UC/Avance.xlsx
+++ b/ERP/Propuesta/UC/Avance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>Compras</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>Cuentas contables globales</t>
-  </si>
-  <si>
-    <t>Planeación de cambios de precio</t>
   </si>
   <si>
     <t xml:space="preserve"> Cambio contraseña</t>
@@ -208,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +228,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -272,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -298,6 +302,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G63"/>
+  <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -620,13 +625,13 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -637,16 +642,16 @@
         <v>19</v>
       </c>
       <c r="E3" s="6">
-        <f>58-9</f>
-        <v>49</v>
+        <f>57-9</f>
+        <v>48</v>
       </c>
       <c r="F3" s="7">
-        <f>COUNTIF(C1:C58,C3)</f>
+        <f>COUNTIF(C1:C57,C3)</f>
         <v>34</v>
       </c>
       <c r="G3" s="7">
         <f>E3-F3</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -661,11 +666,11 @@
       </c>
       <c r="F4" s="8">
         <f>F3/E3</f>
-        <v>0.69387755102040816</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="G4" s="8">
         <f>E4-F4</f>
-        <v>0.30612244897959184</v>
+        <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -707,6 +712,7 @@
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="B10" s="9" t="s">
@@ -830,7 +836,7 @@
     </row>
     <row r="27" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B27" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>19</v>
@@ -958,7 +964,7 @@
     </row>
     <row r="44" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B44" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>19</v>
@@ -1046,15 +1052,12 @@
       <c r="B57" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="7"/>
-    </row>
-    <row r="58" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B58" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="C57" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="1"/>
@@ -1067,9 +1070,6 @@
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
